--- a/medicine/Enfance/Alice_Coléno/Alice_Coléno.xlsx
+++ b/medicine/Enfance/Alice_Coléno/Alice_Coléno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_Col%C3%A9no</t>
+          <t>Alice_Coléno</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice Coléno, née le 24 juillet 1903 à Lorient et morte le 23 juin 1993 à Pont-de-Buis, est une auteure de romans, études, recueils de contes et albums pour la jeunesse. Elle a utilisé les pseudonymes de Richard Kerléano et Françoise Dariaux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_Col%C3%A9no</t>
+          <t>Alice_Coléno</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice Coléno, fille d'un officier d'artillerie, passe son enfance à Lorient puis fait ses études à la maison d'éducation de la Légion d'honneur à Saint-Denis, puis à l'École normale supérieure de Sèvres. Agrégée de lettres modernes, elle enseigne d'abord au lycée de Niort, puis d'Amiens. De 1931 à 1934, elle exerce son métier à Wellesley College, près de Boston aux États-Unis. Elle parcourt le pays en y prononçant de nombreuses conférences. De retour en France, elle reste une année à Paris (Lycée Victor Duruy) avant de rentrer à Lorient (lycée Dupuy de Lôme) en 1939-1940. Elle est rappelée au Wellesley College en 1950-1951. Elle s'éteint à Quimerc'h, en Pont-de-Buis, en 1993.
-Elle écrit son premier livre en 1938, Matin, alors qu'elle est professeur à Amiens, mais c'est Le Quai des Indes, un roman paru en 1946, qui l'a fait connaître comme écrivain. Elle entre alors au comité de rédaction de la revue Arts et Lettres. Elle publie divers ouvrages pour la jeunesse sous des pseudonymes (Richard Kerléano, par exemple Le Courrier de M. de Louvois, un roman de cape et d'épée et Deux épées pour la baronne, publié en 1969 ; Françoise Dariaux, par exemple Matin)[1].  
+Elle écrit son premier livre en 1938, Matin, alors qu'elle est professeur à Amiens, mais c'est Le Quai des Indes, un roman paru en 1946, qui l'a fait connaître comme écrivain. Elle entre alors au comité de rédaction de la revue Arts et Lettres. Elle publie divers ouvrages pour la jeunesse sous des pseudonymes (Richard Kerléano, par exemple Le Courrier de M. de Louvois, un roman de cape et d'épée et Deux épées pour la baronne, publié en 1969 ; Françoise Dariaux, par exemple Matin).  
 Alice Coléno connaissait le braille.
-Son nom a été donné à une rue de Lorient, ainsi qu'à une de Quéven[2].
+Son nom a été donné à une rue de Lorient, ainsi qu'à une de Quéven.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice_Col%C3%A9no</t>
+          <t>Alice_Coléno</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de l'ordre des Palmes académiques</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alice_Col%C3%A9no</t>
+          <t>Alice_Coléno</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,20 +593,59 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sous le nom d'Alice Coléno
-1946 : La Forêt de cristal — Paris, Tisné, illustré par M. Belle-Jouffray, 154 p., jeunesse, rééd. 1957, 1963[3]
+          <t>Sous le nom d'Alice Coléno</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1946 : La Forêt de cristal — Paris, Tisné, illustré par M. Belle-Jouffray, 154 p., jeunesse, rééd. 1957, 1963
 1946 : Le Quai des Indes — Paris, Plon, 246 p.
 1946 : Le Canard Doré — Paris, Lausanne, Librairie Payot, illustré par F. Hafner (jeunesse)
-1948 : Les Portes d'ivoire : métaphysique et poésie : Nerval, Baudelaire, Rimbaud, Mallarmé — Paris, Plon, 247 p., prix de Jouy de l'Académie française, en 1949[4].
+1948 : Les Portes d'ivoire : métaphysique et poésie : Nerval, Baudelaire, Rimbaud, Mallarmé — Paris, Plon, 247 p., prix de Jouy de l'Académie française, en 1949.
 1957 : Les Jardins de la licorne — Paris, éditions Hatier, collection « Il était une fois », illustré par Marie-France de Christen, 112 p. (jeunesse)
 1957 : Le Petit Phoque — Paris, éd. Hatier, illustré par Gian Berto Vanni, 127 p. (jeunesse)
 1957 : Contes de cristal — Paris, Hatier, illustré par G. Vanni, 40 p. (jeunesse)
 1958 : Contes de diamant — Paris, Hatier, illustré par Françoise Bertier, 64 p., jeunesse (plusieurs fois réédité).
 1958 : Le Palais de plumes — Paris, Hatier, coll. « Il était une fois », illustré par Françoise Bertier, 128 p. (jeunesse)
 1963 : La Montagne des démons — Paris, éditions G. P., collection « Jeunesse pocket », illustré par Daniel Dupuy, 188 p. (jeunesse)
-1982 : Le Quai des Indes — préf. de A.P. Ségalen, Genève-Paris, Slatkine, Bretagne et monde celtique (réed.).
-Sous des pseudonymes
-Richard Kerléano
+1982 : Le Quai des Indes — préf. de A.P. Ségalen, Genève-Paris, Slatkine, Bretagne et monde celtique (réed.).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alice_Coléno</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_Col%C3%A9no</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous des pseudonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Richard Kerléano
 1968 : Le Courrier de M. de Louvois (roman) — Paris, Éditions du Gerfaut, collection « Collection Cape et d'épée », 249 p.
 1969 : Deux épées pour la baronne (roman) — Paris, Éditions du Gerfaut, 375 p.
 Françoise Dariaux
